--- a/MainTop/17.08.2024/ozon max/имена_печать_60cm.xlsx
+++ b/MainTop/17.08.2024/ozon max/имена_печать_60cm.xlsx
@@ -383,13 +383,13 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L68" activeCellId="0" sqref="L68"/>
+      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.32"/>

--- a/MainTop/17.08.2024/ozon max/имена_печать_60cm.xlsx
+++ b/MainTop/17.08.2024/ozon max/имена_печать_60cm.xlsx
@@ -380,16 +380,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L68" activeCellId="0" sqref="L68"/>
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.32"/>
@@ -3165,6 +3165,12 @@
         <v>2</v>
       </c>
     </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J76" s="0" t="n">
+        <f aca="false">SUM(J2:J75)</f>
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/MainTop/17.08.2024/ozon max/имена_печать_60cm.xlsx
+++ b/MainTop/17.08.2024/ozon max/имена_печать_60cm.xlsx
@@ -43,10 +43,10 @@
     <t xml:space="preserve">Оценка Оборачиваемости</t>
   </si>
   <si>
-    <t xml:space="preserve">Num_Copies30cm</t>
-  </si>
-  <si>
     <t xml:space="preserve">Num_Copies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num_Copies60cm</t>
   </si>
   <si>
     <t xml:space="preserve">Термобирки Максим</t>
@@ -383,7 +383,7 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
